--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -100,7 +100,7 @@
     <x:t>table</x:t>
   </x:si>
   <x:si>
-    <x:t>0.8796288</x:t>
+    <x:t>0.7845224</x:t>
   </x:si>
   <x:si>
     <x:t>2.00</x:t>
@@ -144,23 +144,56 @@
     <x:t>LineTotal - Confidence</x:t>
   </x:si>
   <x:si>
-    <x:t>asds asds ds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ден132.00 ден132.00 ден23.00 Amount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Subtotal Tax Total Amount Paid Due (MKD)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.9706365</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 ден132.00 1 ден132.00 1 ден23.00 630.00 0.00 630.00 0.00 ден630.00</x:t>
+    <x:t>asds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 ден132.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 ден23.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subtotal Tax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9216105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>630.00 0.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9597457</x:t>
+  </x:si>
+  <x:si>
+    <x:t>630.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amount Paid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9843696</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Due (MKD)</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
 "Value",""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -206,7 +239,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -779,22 +824,100 @@
       <x:c r="B2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="G2" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="H2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="E5" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="E6" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="E7" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="C8" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
@@ -851,22 +974,102 @@
       <x:c r="B2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="C2" s="1" t="s"/>
+      <x:c r="E2" s="1" t="s"/>
+      <x:c r="G2" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="E5" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="G5" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="E6" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="E7" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="C8" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="E8" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>

--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -239,7 +239,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="12">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -239,7 +239,31 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="16">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -809,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H8"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -959,7 +983,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H8"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -998,6 +1022,8 @@
       <x:c r="B2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
+      <x:c r="C2" s="1" t="s"/>
+      <x:c r="E2" s="1" t="s"/>
       <x:c r="G2" s="1" t="s">
         <x:v>56</x:v>
       </x:c>

--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -239,7 +239,67 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -773,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H8"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -923,7 +983,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H8"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -962,6 +1022,8 @@
       <x:c r="B2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
+      <x:c r="C2" s="1" t="s"/>
+      <x:c r="E2" s="1" t="s"/>
       <x:c r="G2" s="1" t="s">
         <x:v>56</x:v>
       </x:c>

--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -239,7 +239,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -821,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H8"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -971,7 +983,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H8"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1010,6 +1022,8 @@
       <x:c r="B2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
+      <x:c r="C2" s="1" t="s"/>
+      <x:c r="E2" s="1" t="s"/>
       <x:c r="G2" s="1" t="s">
         <x:v>56</x:v>
       </x:c>

--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -239,7 +239,43 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="12">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -239,79 +239,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="48">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="24">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -905,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H8"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1055,7 +983,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H8"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1094,6 +1022,8 @@
       <x:c r="B2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
+      <x:c r="C2" s="1" t="s"/>
+      <x:c r="E2" s="1" t="s"/>
       <x:c r="G2" s="1" t="s">
         <x:v>56</x:v>
       </x:c>

--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -239,67 +239,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="24">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -833,7 +773,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
+  <x:dimension ref="A1:H8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -983,7 +923,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
+  <x:dimension ref="A1:H8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1022,8 +962,6 @@
       <x:c r="B2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s"/>
-      <x:c r="E2" s="1" t="s"/>
       <x:c r="G2" s="1" t="s">
         <x:v>56</x:v>
       </x:c>

--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -239,7 +239,43 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="16">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -239,7 +239,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="16">
+  <x:cellStyleXfs count="20">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -239,7 +239,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -239,7 +239,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="24">
+  <x:cellStyleXfs count="28">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -239,7 +239,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="28">
+  <x:cellStyleXfs count="32">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -239,7 +239,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="32">
+  <x:cellStyleXfs count="36">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура2.pdf_1-1.xlsx
+++ b/Data/Exports/Фактура2.pdf_1-1.xlsx
@@ -239,7 +239,43 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="36">
+  <x:cellStyleXfs count="48">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
